--- a/data/test_betting_odds.xlsx
+++ b/data/test_betting_odds.xlsx
@@ -1,6 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -445,7 +448,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -533,34 +538,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1900</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1900</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>